--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/78_Van_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/78_Van_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7AF67C8-BFD7-46BC-9890-E658C9A5F45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{792CE2B3-33E4-4459-9A3D-21673CF03BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="699" xr2:uid="{E0022923-9C9D-4482-AAC8-D0F821D8F600}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{6B4C87F8-6A64-47DE-8689-B10FB15881E7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1023,14 +1023,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{16A99394-A479-4CA9-9EBE-F80C4296DE4B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B75966F8-F61A-40D2-B4C8-540F419DEDA1}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{335D807F-8F56-43B8-BD9F-E7DAD7DE7567}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{B221AD8E-3BC4-40FA-B19D-3DA026888C14}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{88E5CEDE-D4EA-4FCF-AFB0-0441F2B3ACCB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{19AA0418-A4BC-45EB-8D3E-DA2A60632F8B}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{98446335-9892-4D0F-809F-8AAB7326212C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E4285593-B54A-4FD2-9C9A-3C9A0635699A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{519CF6DC-CD83-4E34-88B2-FAEB1DE3B337}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3C29B7AD-D569-4A50-A9A3-515CE5F04E72}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{2598EE6B-0A32-446D-AF80-BB4717509D53}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{70FFE147-FED0-46C0-98FA-47955D52F911}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CDE0376A-4DFF-48F1-BA2B-7C6B991AE650}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{5DE50118-96A9-4ED2-AAEF-66D1D62470F9}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{2CD00362-9367-4BAA-A40A-6B4FCC7ACB0F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{225FB267-DE46-48F4-A021-7582109D6973}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1400,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D849FE85-BE31-4FBA-8A29-EBD37DC26BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8764F8-855A-47E9-89E6-37A373E9E7E1}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2678,17 +2678,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FF9C2ED-DFCF-4D23-B318-7F2EB1436DFE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC54B718-E83D-4DD5-A3FF-D187010EA43C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A56F343E-0D13-45A1-B907-CA664AC93B67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95499A91-5502-4BE6-9AE7-3A13AD8F9086}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47EFB9E3-29D3-4FF5-9C2A-418C7C0AFF9E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1356B404-FC1D-4F8F-887B-4EC5EAF5D38D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1D48997-E6DC-402D-A324-3CC05A54E72A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{415D6631-FE4F-4307-A8BB-6D499712208C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ED05F0BB-6AFB-44FB-BFE1-7EBDA27448F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0313057F-15E2-4FE8-B496-99208E1E072F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{505E419C-F8CA-4DC8-A0AC-18B0B35B1AAA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77673D4C-17AD-42D2-BBFB-DA4199DED373}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78B3D921-D856-4A9D-8624-0BB7AE67E7A8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D8B309D-CEA6-4885-8F5A-E1F13AF89F85}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3EE58A8E-51A9-4BE9-B43C-14D499AB3864}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E00CB5DD-0A22-4917-9E74-BE57D984C33D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FCFD95D1-D059-44BD-B2E5-250CFE3FF33F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6262BC96-5A68-4775-9EF6-D4DDD394FF11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E223950-F293-430F-8DFF-26E9FBF1C419}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{65875C7E-2646-4FB0-BB53-F5F2BAE73DF5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DC596C6C-96A4-45BA-B481-DB6CB1C3D4A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{73995759-ED91-44B0-927B-6E4F9D4E2885}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2701,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078745C3-3786-4992-89A4-6229909EAF2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706051B1-9406-474B-90DB-F3ED10181921}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3968,17 +3968,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{357759FE-CB88-4C71-9493-5CC1A7F7699B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA5290D0-CC36-46CE-8B6D-3AE5F7AF4FC3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EAFFC421-39C1-4981-8FC1-669B853C930D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CDD57510-2896-4BB6-90F8-5278DCFAB9F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C809B69F-866A-4546-9973-75409D824B3C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A78FB877-BF4B-4732-9626-2B89D3DDE1D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7E5C111-A4F4-4257-A97C-F0753D5BDA91}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC64BDD5-AD5D-4DF3-BCA9-49125E7D404F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9CDF9D6C-6903-4377-8716-64128F90F110}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3B9C7960-721F-4E5F-9FF0-F6C06D6EFD9F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A09CE564-BA3E-4DBE-A737-43ACDFE49518}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7BA5F8E-2DC5-458C-8765-5B6DE7EFA0B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C32045F0-2145-4A9B-9529-DCFE03F673ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A448F64-3704-421C-A48D-B74F7540F950}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F641E2C9-4DAC-4C1F-A892-46250459484F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C28546A-B927-42AB-A91F-6FCE48439FC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CCD3015-A824-4CB5-B294-29372603767B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11FD07F8-E5C9-460D-8D55-C052665D3DF2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{358F44DA-5626-42C4-9533-4245A57C9CE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A068E784-BC0E-4C33-B196-92C5F7F68CD9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E5E12145-9C56-4ADD-9497-ED2B2CEBA320}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FF97600-6EF4-4C5B-8119-1AE1DB894FC2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3991,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4379D27D-1DF3-42FC-9933-015E99E81811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189427E4-8988-42F2-9B0E-6C9615531657}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5254,17 +5254,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8EF88D1-FD95-4B69-AA37-F1CEA1F1A703}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2428B47-F14A-4772-B0F3-0FBA3A4F8CED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3101181-A231-4BEC-919B-3C0233F42A6E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9643FEFA-0EE2-44DB-A70A-B802869C61C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FEFD85FE-8307-47E0-A1F2-6E77185B692B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{207723C6-B7CC-4939-A0F2-C7F467B87BFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00906ECA-7584-4B45-9FFB-06F7F6A4885D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{452D07EE-3568-4DCB-8F71-9A3A8691E814}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{83A2578C-8670-4FA3-BF58-BCEC6F522BBF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6BD5CBFA-2F60-46C6-AD15-AC87A10B46CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9286B7D3-7540-4ACD-A087-AC2F74831F78}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FBC3419-28CF-4458-89E6-3FB1319DACF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9866FB0-7032-4056-9C12-7AC2C8901ABB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39805CF9-6F25-4EB5-9613-A198BFC3A7D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E7D0971B-E942-440A-BE40-47F6474BF20E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2C0149A-69B3-4357-927F-2763AB55A6BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E2844534-BB39-46F2-BFEE-37CBE27752E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AE016D0-2E94-449B-A11C-DDA5AEFC35DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EEC4C64-6BC5-48BF-A376-21328345DA2F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0478B190-DDDF-463D-8562-F9582CD1EFDD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FFE974C0-0585-4382-92FA-FA481403B578}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B0F6708-91E4-41A3-9DF7-C23FA9CF748B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5277,7 +5277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773401CB-4EDB-485C-B5A4-A7C068C3F32B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7411E2-975A-439A-A1AD-BAACE3F29F7A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6534,17 +6534,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBDF2927-75A0-4BCB-84AA-F4BCBB6A7BDF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E88B7CC-FFF8-450D-809F-F3360E26D0DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F0EC8E44-9E22-45C6-8F14-CE5D8FD1CC0F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7369239-37B6-4AC7-AEC8-DFB4492435D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F54156D-D02C-4FDF-ACC7-013D6EF7978E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{518128C8-4B0C-48BE-9F99-9DDC169D4778}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{479DBB44-0C90-4358-883C-FACEDCABA6CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D28BCB03-E219-4486-A292-88CA339B352D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{32250CD1-9E7B-4844-BB60-C55D7F606DC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2F44A269-6DC1-421D-B342-6F3894C4AA7E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE415989-2182-4020-B868-41936C9146A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EC2CB9B-2BD8-4F64-9790-31E37FA5FE1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59C4D41E-8B76-4B72-AF4A-C551846F7E4D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6EF9C663-610D-42DD-A957-E52511F4501A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E7D7A6C5-DB93-4DAB-8F8B-DE16E45D9FED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E704AF66-E200-4E3B-A835-55AD09699BE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE557F17-FCFF-4716-9C32-B78AEC691105}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60AFF7AA-545D-40B1-A0A1-03346140ECD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AB264FF-88D0-4962-B65C-85C04DFF4E06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{00C7C91C-82A0-4AB8-926A-799EBB7A218C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DB40C9C9-2AF5-4898-95A4-6234E9FAE7F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B42609F7-6273-4AA5-9654-FC06F2EDFC07}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6557,7 +6557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904FB97C-CDEB-46C4-95CB-37A412677329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AFFF10-1CCE-4531-A5BE-D77045A826EA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7830,17 +7830,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8700883C-5D82-4BB7-B953-8C7533CC0C54}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCE3A1AF-C96E-4780-884C-EC3BFD24B122}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{091A8D22-DFBD-4873-B838-FB8F81855D58}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B72CE2CA-3F29-4F4C-858F-1133227B5CF9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24243D86-1393-4D4C-847C-F18ECA1E9DE7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDBCEB0B-E2F6-4FBD-AB1F-BA5813F96919}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAAC8324-8567-481D-9915-F79872527342}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D7B49DD-810E-4F6D-90DD-18F2C8C312BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{17C94C39-3D3B-45DA-AEE6-EFA10D9AE1C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{62B074B2-375E-42A3-BC9E-4788954FEF22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7BB5D77-A2E4-406A-B948-853A7A8623E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F687B451-3FDE-4635-B711-EB86FABF6EB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7427121-14D4-41B1-91FC-5A1C8F56DB5D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FB19921-9D38-4AA3-9623-2567A2EA73DB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A220EDC-6A13-4CFC-9070-268F3CC4C06E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3525F9C3-6CF2-43B6-B174-A2115EA72879}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{245A0F86-F3F6-435E-B7BE-87864000B612}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F917F71-D308-4329-AEF7-2D5663F39E21}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F4D10FB-F005-4FA1-B96E-2B8B463700D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0A0BE844-E3E5-49E1-B63A-8EF3712C805D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1FB845A1-1994-4768-8572-83D27389FF3E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFFA8B00-8E1D-491A-B332-8CF247CF9165}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7853,7 +7853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93861DA1-5DE4-47E3-8125-B0B2F1BED2FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989A3EB9-4DDB-43FF-89BB-AC9A0146DBDF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9122,17 +9122,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3DD981F-016E-406B-8D7B-3418DA9E2859}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89C627F1-109C-46EC-83A9-FF9B8A0C00D2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{37AA8065-BD72-49E7-8DAE-E5140BB56D27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D62994C1-5FF2-4580-BDB6-74DFB44150FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CDF035B-720F-42D6-8D33-0ACBFFB9A947}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC22D862-D5C7-404E-A806-198622A296D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34D4767B-BB13-4D87-BCC9-E22783A0D69B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16655AD6-9A79-4630-8DC5-EFFDD2D65575}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1BC7A295-B618-4BAE-B51A-DD8DC895358F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0A3FC108-F20F-4CEE-BF99-030633BB0938}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4BD7AC7-BA7D-4CE6-9CA2-71E3D60AC9DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CCB685D-0667-477F-B0AE-50B7AD668F5D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8ED81DC2-2060-45C9-870D-5E7C1FD6A4BA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C14D1D2-BC2F-4D54-AC34-BE91DB0E527F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{03E596C3-28D6-4B47-ADC6-331B24087C08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{807884B0-A437-4C91-ADA4-FFE05E1AA8F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15E76416-F414-4396-AA3E-EA9A70EF5B28}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44B2CDCA-2F1D-4B5F-8057-28975E4125B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57436E6E-8329-409B-A09E-4FC71380CDB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{06F4D624-C9D9-4BAE-BCF7-DD16A7598A29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F464AB83-5A1F-4214-B045-1429DEF3A894}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24A6AC53-419B-45A6-9CD4-16860D098EC7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9145,7 +9145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB31EAE-D77D-413F-9314-7923157C9E9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442514E9-1F0D-45A5-9485-94E548928A80}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10414,17 +10414,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F956998-598C-4F07-92A9-31E3E169177C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0209B78E-4D02-43F6-92D8-4ECFD319A466}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA14F0F5-DC87-411F-B62A-0F357A12581E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93A4C885-4EA9-4DC2-9FE7-4BE3C1FE18BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7177F958-C790-4502-A5E3-78BA671E3428}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AE47F7D3-C0A0-4648-9B40-9A399CF74F43}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84FD4989-506B-4930-868B-A4197086C353}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DD65E02-DC39-41D7-8F06-F9878AF3CE49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{40A801EE-E208-49D5-8B4D-9C9143057F0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AF877FBA-CF43-43B4-B0D4-C74DFCA6DE35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFF5B55D-56B8-49A2-A4E7-E66D7DA679F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53481278-C950-4703-A8A4-326053B3E6F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{588187B8-4B07-4175-8216-60BEA75F3D89}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE67BBDA-F55E-4F4B-B0F8-F4159B384514}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9ABAE9C0-2C82-4630-B90B-012AF6F5F806}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7B314BB-2BF5-47AD-A6A4-B0CD9EA5A10F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADBDB1CB-04EC-4E48-A343-24A09AF0A2D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B37A2FA-31D4-4231-9B54-64F1D8C93F47}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EF4958C-C888-483E-A3D6-A282B87B3C78}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8EEE3C82-5197-4FFC-9DB3-88D9FFA42865}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5D3783F3-EFF9-48C2-87D5-6136B22496EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A683AD8B-3E24-494B-B759-4FF61D18027A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10437,7 +10437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B39DBA7-7680-435C-8A46-AA3F1A4C7046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC816DA0-3A0C-4FD0-B937-3D1761021B76}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11706,17 +11706,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85B985FD-EC47-4CA5-98F5-538F6269E4DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EFEB812-1BBC-48D7-AE8C-C0D11C9635E1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F1DCAAF-BB74-420C-AD6A-9D600F3797CD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{264619BE-B451-4C75-AE40-8BAA040AB422}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59828189-0A0D-4574-928E-0542EEACD49C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1AC4063A-E93E-4E61-A01C-AC331425D6B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{426E504F-EDB9-4807-8B2D-F3523DCBA28D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B484D49B-1105-437D-9CAF-1E63FACC639D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{804F78F9-4441-4FE2-83EE-667F740C2C01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{895C6FE7-E04E-4ACF-B949-53CA53CDA5BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F08DCAB-B112-47C1-811B-8DFA4AD6885C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1299FFE0-9D87-467A-A9C0-3AAECA458CD6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBBAB019-7001-4A71-BC15-400AF2051E5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3344257E-14BD-46AF-8BA1-D7AA3BD64E09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C97EFDC0-8BBC-4CCA-B986-D01F4918571E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E90FDD8-1D16-4273-9A0E-C072E05A7703}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A33F44F-CFBF-4AA9-A498-3A9187D8071D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{846C5523-3D1D-4F9F-98DC-F74161928D2A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B469845-7676-4AD2-8112-92AD390820FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B791A5E5-3E39-418B-8BCC-80C065941F15}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EDCB3678-4952-4E6E-B6C4-390EAB9BAC23}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FB80830-DEF8-4899-89F8-968B010C734F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11729,7 +11729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB6B882-A6C7-4977-8918-31264D7F47B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301BB79-45A0-48FA-9C40-644E0AD9E91B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12998,17 +12998,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E84931D-FDA0-4DC9-9E2D-6BA15217150E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F66919ED-947D-4C56-92C8-C0152C397BC3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B48AA29-48AF-4997-AD93-8D4056675A95}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{841DFF8D-7979-4448-940E-7FA5DE04101E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FDAB61C7-0C26-4EF7-AD10-9BC5CB3C13E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D435944-488C-4CE9-BCDF-BD369828F59B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A25DE220-7532-404A-A3BF-73F565B9C202}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E98D0CFA-0A3B-447F-A1A2-0B8A8883E17C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{11A9504B-5942-4800-8641-09A16B03D2C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0E1A2E3F-C7FF-444F-A4BE-CF20D6AB4332}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A4B0847-6A47-4B6A-8056-4926A60BE5D1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEFDC29B-2A82-4426-9329-F07D33A279B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93026196-6466-4EC7-8DA6-52F28C498F18}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25E2D399-7639-492A-AD23-649CFAE9FB16}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{047FF14F-BEF9-493B-B96F-D852D2B64B8B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2046D91-7339-41A0-9B4F-43D1E110FA6A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37FEDE76-940A-4490-9689-D5457BC05778}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D720DD79-A136-40D8-B21B-08C38CAEE026}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD4B73A0-7722-4EB6-9E6E-E9D3B8D924D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B88410FB-5CA8-4391-9752-3A5C52C7BCAE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D6B0C98B-E91E-4ADB-A95A-2EBE2316640A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{450EED7A-4210-4C84-AB36-B6F4142722E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13021,7 +13021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E21D991-4974-4EA9-BBFA-DE3BC2A6EBDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A27396-29CB-4A92-9B65-4F1B25DDF02F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14290,17 +14290,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{196DC882-D448-40EE-8FCF-45F9865A7254}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BF15208-4808-4E34-8893-4B4575258328}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E330C28-FA7D-41E2-9258-C88B9AA51ADF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{075CE4CD-9F7A-4F0B-AEA6-D99C7BB4F9AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A2D4235-F202-46CF-B64F-CB90421C56AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76D26C71-A9E8-4E84-A4EC-DB2AF111A40D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F693B3A-E723-4F26-8E94-5421CF0937FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DB79250-BEFB-467F-8A3F-BC44B7CB41C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C3A6DB75-572B-412F-AEFA-7608C416D472}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{612FA6B2-F1BB-4594-95FE-6F8DA30E47C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0E5F63E-F7DF-4674-83CD-258FFE2E8D53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82EFBC23-518C-4516-BD9A-182F711CEB41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{23E76A98-A6F2-4612-AAD5-F7FF961D6230}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D940EB3-14C6-43EA-BFFE-C5551203D889}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC76C0C3-F8FD-4F83-BA63-6AC8B0B73E92}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3AA5F0E-CCF7-4EEC-960C-7D50227FF5D9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BEF9CD59-2359-4257-8C92-62389456F0E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1135D3B3-0F3F-42F1-B1AE-3088B6821A1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{807887ED-055F-496F-A114-379785DA5BD5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{42A9E63A-9A92-4291-8E43-F71481F69DBD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9983964B-4763-4C1A-83ED-C473559B498C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1275CF7-C14A-44CD-B349-7F8BEAFC4E93}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14313,7 +14313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F1B848-1155-47D6-9039-56CA077A0B3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056A6E94-A6C9-4D52-A9F1-4F95594EC5C4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15582,17 +15582,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{886EF842-011F-43DF-B51F-D7C11DA69BDE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A73FBD60-ECAC-45D6-9980-D7430EBF5511}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7673FD0C-56FD-4615-9C84-86D7C5C10BE1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4AC4ED0E-4C90-4248-9D71-1CB7194FBEEB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABE5EC64-A597-48E7-B272-1411C8E189A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CF3886F-8C1F-44E4-A141-AA540B1F0F89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D917DF05-3D91-4501-9470-4884A17EA6D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE0CAF57-A0E4-4B6A-93AC-25AC3C73848B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EB2AF254-A2BE-423C-B2D7-B83E3B36CA4B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{81245319-A376-463D-8E11-FE415C3982F2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB1FAFD3-0F4D-4264-A643-12B720761E9B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A69381AA-959C-498D-BEA9-BC6E09C2C953}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E9863CA-E7C3-4DCB-81D8-1E99C81BD0CF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0AE71AE4-FEA6-4A5E-95E4-BF524D3D213F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1DA38C8-9394-439B-B6FB-5EDDA6181D25}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A2C3EE7-595D-4A18-9F46-E5F09230A4C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96CEA00B-D304-426F-B0C3-1FA981CB60B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8238573B-A1D4-444F-95E3-EF02855801E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75A63F1F-0EFC-4847-9BB0-1FA8F680AFFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E6747C72-F6EA-4F34-8AAD-901F73862359}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1BF75941-561C-4118-8B9E-2E0B811C2A68}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9B5CF8B-0F82-4F73-9929-39181D41922C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15605,7 +15605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240A3B29-1FF0-4500-8A57-E514FF95BBF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C65BAE-23B9-433B-9897-2D4083BD6305}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16874,17 +16874,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE9083E6-BEA3-41F8-B91D-C40E66710785}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B33881B4-4E37-45E8-B383-1E5252BCF090}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24FB2365-1967-4C38-BA68-99DAC1203405}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{453FA796-295D-4C28-A210-7141BE2AEA20}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7E21A10-CC18-4DA7-8910-42B59960329A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A470F5C-3963-4F07-BE2C-0AF82C713335}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5A105FC-A05B-4FC0-A6A1-BCF897B09FA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73D5D60D-F406-4733-BBF4-4642BE4F2FA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{59E91D96-7770-47E1-8A13-14369A8A2386}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4DF277E9-01A6-4E66-B680-B479BD4C2154}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40FDD408-6CFE-4C0B-8073-D6D52A0F1302}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B906A7FC-4F25-4B04-8663-225F94DF17AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02D6BD5E-4A59-4B66-8E02-BC334DEB2CAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4E950BC-52A8-4DEE-95EA-BD6768B477D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD14D513-1BE0-40B3-9CD3-09366E58F6FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A6A923F-D5D5-45E5-9207-D63545E6F9F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A9FEE0E8-FECF-4052-AF35-CA23A47A5970}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{912F5D74-2E12-4B4C-862B-EB3302AAEDFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAFA3719-24FA-428B-8533-BA50B2F9C3ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B3163884-6687-47DD-BBE3-DE04B4C8EA72}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{90841A4A-BEF0-4DCA-ACAD-E356BEB36AB6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C346B6F2-7695-40A2-AA8A-20D0CD309B90}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
